--- a/data/trans_camb/P2A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Clase-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con alguna condición</t>
+          <t>Hogares que tienen personas con alguna condición, enfermedad crónica o limitación</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 12,86</t>
+          <t>-1,12; 12,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 8,15</t>
+          <t>-5,9; 7,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -0,74</t>
+          <t>-13,13; -0,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 10,53</t>
+          <t>-6,24; 10,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 8,36</t>
+          <t>-6,59; 9,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,02; -4,85</t>
+          <t>-18,77; -4,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 10,0</t>
+          <t>-1,04; 9,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 6,46</t>
+          <t>-3,77; 6,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; -3,9</t>
+          <t>-13,65; -4,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 30,97</t>
+          <t>-2,25; 30,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 19,37</t>
+          <t>-12,22; 18,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,89; -2,13</t>
+          <t>-27,53; -2,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 23,17</t>
+          <t>-11,05; 22,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 17,93</t>
+          <t>-12,11; 19,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,95; -9,69</t>
+          <t>-34,38; -10,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 22,09</t>
+          <t>-1,84; 21,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 14,52</t>
+          <t>-7,42; 14,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,1; -8,87</t>
+          <t>-26,9; -10,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 13,58</t>
+          <t>-1,85; 13,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 9,93</t>
+          <t>-6,05; 8,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,45; -5,37</t>
+          <t>-19,92; -5,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 14,5</t>
+          <t>-0,93; 14,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 2,93</t>
+          <t>-11,82; 3,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,44; -12,09</t>
+          <t>-25,12; -11,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 11,58</t>
+          <t>0,75; 11,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 4,04</t>
+          <t>-6,66; 3,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,91; -10,88</t>
+          <t>-20,55; -11,02</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 30,59</t>
+          <t>-3,61; 29,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 23,19</t>
+          <t>-11,9; 20,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,93; -11,81</t>
+          <t>-38,53; -12,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 28,15</t>
+          <t>-1,53; 27,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 5,75</t>
+          <t>-20,34; 6,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,45; -23,86</t>
+          <t>-42,86; -23,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 23,7</t>
+          <t>1,56; 23,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 8,33</t>
+          <t>-12,26; 7,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,54; -22,49</t>
+          <t>-38,0; -22,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 15,99</t>
+          <t>4,12; 16,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,94; 16,65</t>
+          <t>3,97; 16,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-38,87; -6,01</t>
+          <t>-41,26; -6,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 17,67</t>
+          <t>-1,33; 17,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 13,93</t>
+          <t>-6,82; 13,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,19; -1,5</t>
+          <t>-20,16; -1,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 15,49</t>
+          <t>5,36; 15,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 15,05</t>
+          <t>3,33; 14,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-40,49; -6,91</t>
+          <t>-41,24; -7,11</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,81; 35,33</t>
+          <t>8,49; 36,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,11; 36,98</t>
+          <t>7,56; 36,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,72; -12,94</t>
+          <t>-80,84; -13,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 31,74</t>
+          <t>-1,63; 31,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 24,98</t>
+          <t>-10,26; 24,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,29; -2,71</t>
+          <t>-30,05; -1,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,3; 31,91</t>
+          <t>9,75; 31,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,13; 30,92</t>
+          <t>6,01; 29,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,15; -13,55</t>
+          <t>-76,33; -13,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,83</t>
+          <t>1,45; 9,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 5,91</t>
+          <t>-2,14; 6,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -4,57</t>
+          <t>-13,39; -4,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 8,01</t>
+          <t>-1,94; 8,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,74; -0,78</t>
+          <t>-10,88; -0,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 15,34</t>
+          <t>-21,27; 15,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,94</t>
+          <t>1,68; 8,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,29</t>
+          <t>-4,51; 2,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 9,33</t>
+          <t>-13,83; 7,24</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,07; 19,33</t>
+          <t>2,62; 19,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 11,47</t>
+          <t>-3,92; 11,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,54; -9,13</t>
+          <t>-24,53; -9,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 13,33</t>
+          <t>-2,99; 14,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,45; -1,39</t>
+          <t>-16,84; -1,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 26,1</t>
+          <t>-33,62; 24,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,03; 14,47</t>
+          <t>2,8; 14,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 4,16</t>
+          <t>-7,73; 4,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 18,01</t>
+          <t>-24,5; 12,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 12,59</t>
+          <t>-0,07; 12,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 10,6</t>
+          <t>-2,75; 10,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 2,96</t>
+          <t>-10,97; 3,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,47; 14,96</t>
+          <t>4,74; 15,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,26</t>
+          <t>3,14; 13,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,71; -9,45</t>
+          <t>-29,49; -9,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,14; 12,89</t>
+          <t>3,95; 12,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,55</t>
+          <t>1,05; 9,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-21,69; -7,02</t>
+          <t>-20,57; -6,81</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 26,21</t>
+          <t>-0,33; 26,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 21,7</t>
+          <t>-4,95; 22,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 6,13</t>
+          <t>-19,72; 6,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,52; 24,33</t>
+          <t>6,91; 24,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,39; 21,36</t>
+          <t>4,63; 21,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-45,42; -15,11</t>
+          <t>-45,53; -15,64</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,6; 22,49</t>
+          <t>6,35; 21,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,81; 16,37</t>
+          <t>1,69; 16,31</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-35,02; -12,02</t>
+          <t>-33,91; -11,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,85; 19,02</t>
+          <t>3,1; 18,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 14,0</t>
+          <t>0,5; 15,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 11,71</t>
+          <t>-10,34; 10,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 7,51</t>
+          <t>0,29; 7,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,84</t>
+          <t>-3,93; 3,68</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-22,16; -13,42</t>
+          <t>-21,84; -13,53</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,45</t>
+          <t>1,61; 8,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,62</t>
+          <t>-2,61; 4,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-19,67; -10,95</t>
+          <t>-19,8; -11,1</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>9,97; 82,77</t>
+          <t>10,36; 78,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 58,89</t>
+          <t>1,58; 64,81</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 48,53</t>
+          <t>-35,06; 41,56</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 11,0</t>
+          <t>0,41; 11,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 5,7</t>
+          <t>-5,51; 5,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-31,23; -19,47</t>
+          <t>-30,66; -19,76</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,77; 14,05</t>
+          <t>2,55; 14,93</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 7,74</t>
+          <t>-4,14; 7,29</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-31,64; -18,34</t>
+          <t>-31,31; -18,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,93</t>
+          <t>4,97; 9,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,61</t>
+          <t>1,96; 6,75</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-19,66; -6,66</t>
+          <t>-18,64; -6,4</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,6</t>
+          <t>3,04; 7,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,17</t>
+          <t>-2,63; 2,08</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -5,42</t>
+          <t>-19,48; -4,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,99</t>
+          <t>4,57; 7,9</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,58</t>
+          <t>0,26; 3,6</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-17,22; -7,36</t>
+          <t>-17,74; -7,94</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>10,11; 21,14</t>
+          <t>10,17; 21,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3,35; 14,1</t>
+          <t>3,97; 14,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-40,06; -13,98</t>
+          <t>-38,2; -13,56</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4,75; 12,14</t>
+          <t>4,65; 11,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 3,48</t>
+          <t>-4,02; 3,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-30,77; -8,18</t>
+          <t>-30,55; -7,08</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,37</t>
+          <t>8,06; 14,31</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,09; 6,48</t>
+          <t>0,4; 6,48</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-30,39; -13,09</t>
+          <t>-31,37; -14,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
